--- a/PythonApplication1/Wholesale Delivered Template.xlsx
+++ b/PythonApplication1/Wholesale Delivered Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB18790D-1195-4BDC-9280-C81ED133270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D983DF50-7D6F-4E93-860A-911E94263CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,6 +510,290 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1B9BAF-0524-4D84-B2F2-D618F6CD4C64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14354175" y="0"/>
+          <a:ext cx="4572000" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>376237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42438F66-6ADC-466D-B22D-0BB4C96DFA50}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0C1B9BAF-0524-4D84-B2F2-D618F6CD4C64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-581025" y="4362450"/>
+          <a:ext cx="2809875" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF6C348-DB13-410E-BE8F-ACE12B09A7F9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{42438F66-6ADC-466D-B22D-0BB4C96DFA50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-123825" y="7153275"/>
+          <a:ext cx="1905000" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0494CC-4D17-4FCE-BAD7-BC56EEBB17E3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EFF6C348-DB13-410E-BE8F-ACE12B09A7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16151584">
+          <a:off x="-609600" y="9677400"/>
+          <a:ext cx="2933700" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECACAAF5-5A53-44F7-A7B1-B4EC7EBC9674}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9D0494CC-4D17-4FCE-BAD7-BC56EEBB17E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-1447800" y="13649325"/>
+          <a:ext cx="4572000" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5ADCB1-B342-4F9B-B14C-3A80346F2795}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ECACAAF5-5A53-44F7-A7B1-B4EC7EBC9674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16242439">
+          <a:off x="-114300" y="18764250"/>
+          <a:ext cx="1981200" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -713,8 +997,8 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4342,5 +4626,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23" right="0" top="1" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>